--- a/Zeitblätter/Thomas Rienößl.xlsx
+++ b/Zeitblätter/Thomas Rienößl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>Zeitblatt: Thomas Rienößl</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Ausarbeitung, wie die Ballflugbahn berechnet werden kann</t>
+  </si>
+  <si>
+    <t>Finalisierung Berechnung, Erstellung Pseudocode für Berechnung</t>
   </si>
   <si>
     <t>Summe</t>
@@ -176,7 +179,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -237,6 +240,12 @@
         <f aca="false">A6+1</f>
         <v>42647</v>
       </c>
+      <c r="B7" s="0" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
@@ -405,11 +414,11 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
-        <v>6</v>
+        <v>7.25</v>
       </c>
     </row>
   </sheetData>
@@ -644,7 +653,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
@@ -886,7 +895,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
@@ -1128,7 +1137,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>

--- a/Zeitblätter/Thomas Rienößl.xlsx
+++ b/Zeitblätter/Thomas Rienößl.xlsx
@@ -38,7 +38,7 @@
     <t>Ausarbeitung, wie die Ballflugbahn berechnet werden kann</t>
   </si>
   <si>
-    <t>Finalisierung Berechnung, Erstellung Pseudocode für Berechnung</t>
+    <t>Finalisierung Berechnung, Erstellung Pseudocode für Berechnung, Tagebuch schreiben</t>
   </si>
   <si>
     <t>Summe</t>
@@ -179,7 +179,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -241,7 +241,7 @@
         <v>42647</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
@@ -418,7 +418,7 @@
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
-        <v>7.25</v>
+        <v>8.25</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblätter/Thomas Rienößl.xlsx
+++ b/Zeitblätter/Thomas Rienößl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>Zeitblatt: Thomas Rienößl</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Finalisierung Berechnung, Erstellung Pseudocode für Berechnung, Tagebuch schreiben</t>
+  </si>
+  <si>
+    <t>Einlesen in das Buch Realtime-Concepts (enthält einige nützliche Anhaltspunkte für das Design des Servers)</t>
   </si>
   <si>
     <t>Summe</t>
@@ -179,7 +182,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -252,6 +255,12 @@
         <f aca="false">A7+1</f>
         <v>42648</v>
       </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
@@ -414,11 +423,11 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +662,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
@@ -895,7 +904,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
@@ -1137,7 +1146,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>

--- a/Zeitblätter/Thomas Rienößl.xlsx
+++ b/Zeitblätter/Thomas Rienößl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="409" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="283" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" state="visible" r:id="rId2"/>
@@ -182,7 +182,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -256,7 +256,7 @@
         <v>42648</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1</v>
+        <v>4.25</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>7</v>
@@ -427,7 +427,7 @@
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
-        <v>9.25</v>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblätter/Thomas Rienößl.xlsx
+++ b/Zeitblätter/Thomas Rienößl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="283" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="195" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>Zeitblatt: Thomas Rienößl</t>
   </si>
@@ -41,7 +41,13 @@
     <t>Finalisierung Berechnung, Erstellung Pseudocode für Berechnung, Tagebuch schreiben</t>
   </si>
   <si>
-    <t>Einlesen in das Buch Realtime-Concepts (enthält einige nützliche Anhaltspunkte für das Design des Servers)</t>
+    <t>Einlesen in das Buch Realtime-Concepts (enthält einige nützliche Anhaltspunkte für das Design des Servers), Teammeeting zur Erstellung der Präsi</t>
+  </si>
+  <si>
+    <t>Präsis zu Projekten, Erste Schritte (Überlegungen) zur Überarbeitung der Scheinwerfersteuerung</t>
+  </si>
+  <si>
+    <t>Aufbau Flugbahnsim-Test, Tobi helfen Sensorwerte zu interpretieren + Bugsuche (bei beicen)</t>
   </si>
   <si>
     <t>Summe</t>
@@ -182,7 +188,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -267,6 +273,12 @@
         <f aca="false">A8+1</f>
         <v>42649</v>
       </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
@@ -291,6 +303,12 @@
         <f aca="false">A12+1</f>
         <v>42653</v>
       </c>
+      <c r="B13" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
@@ -423,11 +441,11 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
-        <v>12.5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -662,7 +680,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
@@ -904,7 +922,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
@@ -1146,7 +1164,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>

--- a/Zeitblätter/Thomas Rienößl.xlsx
+++ b/Zeitblätter/Thomas Rienößl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>Zeitblatt: Thomas Rienößl</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Aufbau Flugbahnsim-Test, Tobi helfen Sensorwerte zu interpretieren + Bugsuche (bei beicen)</t>
+  </si>
+  <si>
+    <t>Überarbeitung der Positionsberechnung des Scheinwerfers</t>
+  </si>
+  <si>
+    <t>1,5 Stunden Alienmeeting (Inhalt siehe Lerntagebuch); 1,5 Stunden Architekturskizze erstellt (in der Gruppe), weitere Arbeitspakete verteilt, Lerntagebuch geschrieben (ca. 0,5 h)</t>
   </si>
   <si>
     <t>Summe</t>
@@ -188,7 +194,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -315,12 +321,25 @@
         <f aca="false">A13+1</f>
         <v>42654</v>
       </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <f aca="false">A14+1</f>
         <v>42655</v>
       </c>
+      <c r="B15" s="0" t="n">
+        <f aca="false">1.5+1.5</f>
+        <v>3</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
@@ -441,11 +460,11 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -680,7 +699,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
@@ -922,7 +941,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
@@ -1164,7 +1183,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>

--- a/Zeitblätter/Thomas Rienößl.xlsx
+++ b/Zeitblätter/Thomas Rienößl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>Zeitblatt: Thomas Rienößl</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>1,5 Stunden Alienmeeting (Inhalt siehe Lerntagebuch); 1,5 Stunden Architekturskizze erstellt (in der Gruppe), weitere Arbeitspakete verteilt, Lerntagebuch geschrieben (ca. 0,5 h)</t>
+  </si>
+  <si>
+    <t>Tests und Fixes Simulation</t>
   </si>
   <si>
     <t>Summe</t>
@@ -194,7 +197,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -370,6 +373,12 @@
         <f aca="false">A19+1</f>
         <v>42660</v>
       </c>
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
@@ -460,11 +469,11 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -699,7 +708,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
@@ -941,7 +950,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
@@ -1183,7 +1192,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>

--- a/Zeitblätter/Thomas Rienößl.xlsx
+++ b/Zeitblätter/Thomas Rienößl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Zeitblatt: Thomas Rienößl</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Tests und Fixes Simulation</t>
+  </si>
+  <si>
+    <t>Implementierung Vorabversion Alienserver</t>
   </si>
   <si>
     <t>Summe</t>
@@ -197,7 +200,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -374,7 +377,7 @@
         <v>42660</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>12</v>
@@ -385,6 +388,12 @@
         <f aca="false">A20+1</f>
         <v>42661</v>
       </c>
+      <c r="B21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
@@ -469,11 +478,11 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
-        <v>25</v>
+        <v>27.5</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +717,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
@@ -950,7 +959,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
@@ -1192,7 +1201,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>

--- a/Zeitblätter/Thomas Rienößl.xlsx
+++ b/Zeitblätter/Thomas Rienößl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>Zeitblatt: Thomas Rienößl</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Implementierung Vorabversion Alienserver</t>
+  </si>
+  <si>
+    <t>Teammeeting</t>
+  </si>
+  <si>
+    <t>Lerntagebuch schreiben</t>
   </si>
   <si>
     <t>Summe</t>
@@ -200,7 +206,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -400,12 +406,24 @@
         <f aca="false">A21+1</f>
         <v>42662</v>
       </c>
+      <c r="B22" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
         <f aca="false">A22+1</f>
         <v>42663</v>
       </c>
+      <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
@@ -478,11 +496,11 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
-        <v>27.5</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +735,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
@@ -959,7 +977,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
@@ -1201,7 +1219,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>

--- a/Zeitblätter/Thomas Rienößl.xlsx
+++ b/Zeitblätter/Thomas Rienößl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>Zeitblatt: Thomas Rienößl</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Lerntagebuch schreiben</t>
+  </si>
+  <si>
+    <t>Berechnungsbeispiele erstellt, Kampf mit CCS</t>
   </si>
   <si>
     <t>Summe</t>
@@ -206,7 +209,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -448,6 +451,12 @@
         <f aca="false">A26+1</f>
         <v>42667</v>
       </c>
+      <c r="B27" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
@@ -496,11 +505,11 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
-        <v>32</v>
+        <v>35.5</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +744,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
@@ -977,7 +986,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
@@ -1219,7 +1228,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>

--- a/Zeitblätter/Thomas Rienößl.xlsx
+++ b/Zeitblätter/Thomas Rienößl.xlsx
@@ -68,7 +68,7 @@
     <t>Lerntagebuch schreiben</t>
   </si>
   <si>
-    <t>Berechnungsbeispiele erstellt, Kampf mit CCS</t>
+    <t>Aufbau Berechnungsbeispiele mit Grafiken, Kampf mit CCS beim Versuch beispiel zum laufen zu bringen (Kampf verloren)</t>
   </si>
   <si>
     <t>Summe</t>
@@ -209,7 +209,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -452,7 +452,7 @@
         <v>42667</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>16</v>
@@ -509,7 +509,7 @@
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
-        <v>35.5</v>
+        <v>36.25</v>
       </c>
     </row>
   </sheetData>
